--- a/medicine/Mort/Décès_en_2020/Décès_en_2020.xlsx
+++ b/medicine/Mort/Décès_en_2020/Décès_en_2020.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_2020</t>
+          <t>Décès_en_2020</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Décès
@@ -508,7 +520,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_2020</t>
+          <t>Décès_en_2020</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -528,8 +540,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Janvier
-1er janvier : David Stern, ancien commissionnaire de la NBA.
+          <t>Janvier</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>1er janvier : David Stern, ancien commissionnaire de la NBA.
 3 janvier :
 Qassem Soleimani, général iranien.
 Nathaël Julan, jeune footballeur professionnel évoluant à l'EA Guingamp.
@@ -552,9 +569,43 @@
 30 janvier: Roger Holeindre, militaire, résistant, journaliste et homme politique français.
 31 janvier :
 Mary Higgins Clark, écrivaine américaine.
-Guy Delcourt, homme politique français.
-Février
-2 février : Mike Moore, homme politique néo-zélandais, premier ministre en 1990.
+Guy Delcourt, homme politique français.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Décès_en_2020</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_2020</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Février</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2 février : Mike Moore, homme politique néo-zélandais, premier ministre en 1990.
 3 février :
 David Kessler, haut fonctionnaire français.
 George Steiner, critique littéraire et écrivain français.
@@ -583,9 +634,43 @@
 25 février :
 Gabrielle Grandière, auteur de la comptine Pirouette Cacahuète.
 Hosni Moubarak, homme politique égyptien.
-26 février : Hans Deinzer, clarinettiste et professeur de clarinette.
-Mars
-6 mars : Henri Richard,  joueur de hockey sur glace québécois, membre du temple de la renommée du hockey.
+26 février : Hans Deinzer, clarinettiste et professeur de clarinette.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Décès_en_2020</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_2020</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Mars</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>6 mars : Henri Richard,  joueur de hockey sur glace québécois, membre du temple de la renommée du hockey.
 8 mars : Max von Sydow, acteur franco-suédois.
 12 mars : Tonie Marshall,  actrice, réalisatrice, scénariste et chorégraphe.
 15 mars : Suzy Delair, actrice et chanteuse française.
@@ -605,9 +690,43 @@
 Bill Withers, auteur-compositeur et chanteur américain.
 31 mars :
 Pierre Bénichou, journaliste et chroniqueur français.
-Pape Diouf, personnalité franco-sénégalaise du football.
-Avril
-4 avril : Luis Eduardo Aute, auteur compositeur interprète espagnol.
+Pape Diouf, personnalité franco-sénégalaise du football.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Décès_en_2020</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_2020</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Avril</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>4 avril : Luis Eduardo Aute, auteur compositeur interprète espagnol.
 11 avril :
 John Horton Conway, mathématicien britannique.
 Colby Cave, joueur de hockey canadien.
@@ -625,9 +744,43 @@
 29 avril :
 Irfan Khan, acteur indien.
 Maj Sjöwall, écrivaine suédoise.
-30 avril : Sam Lloyd, acteur, chanteur et musicien américain.
-Mai
-2 mai : Idir, auteur-compositeur-interprète et musicien kabyle algérien.
+30 avril : Sam Lloyd, acteur, chanteur et musicien américain.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Décès_en_2020</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_2020</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Mai</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2 mai : Idir, auteur-compositeur-interprète et musicien kabyle algérien.
 3 mai : Dave Greenfield , clavériste du groupe The Stranglers.
 6 mai : Jean Le Dû, linguiste breton.
 8 mai : Cécile Rol-Tanguy, résistante française.
@@ -650,9 +803,43 @@
 30 mai : Mady Mesplé, soprano française.
 31 mai :
 Michel Aumont, clarinettiste et compositeur breton.
-Christo, artiste bulgare puis américain.
-Juin
-1er juin : Myroslav Skoryk, compositeur ukrainien.
+Christo, artiste bulgare puis américain.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Décès_en_2020</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_2020</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Juin</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>1er juin : Myroslav Skoryk, compositeur ukrainien.
 2 juin :
 Jacques Noyer, prélat catholique
 Chris Trousdale, chanteur de pop, danseur et acteur américain.
@@ -670,9 +857,43 @@
 22 juin : Joel Schumacher, réalisateur
 24 juin : Marc Fumaroli, critique littéraire et essayiste français.
 29 juin : Carl Reiner, acteur américain.
-30 juin : Ida Haendel, violoniste britannique, pédagogue.
-Juillet
-3 juillet : Hermine de Clermont-Tonnerre, princesse et styliste pour Dior.
+30 juin : Ida Haendel, violoniste britannique, pédagogue.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Décès_en_2020</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_2020</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Juillet</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>3 juillet : Hermine de Clermont-Tonnerre, princesse et styliste pour Dior.
 6 juillet : Ennio Morricone, compositeur, producteur et chef d'orchestre italien.
 8 juillet :
 Amadou Gon Coulibaly, homme politique ivoirien.
@@ -687,9 +908,43 @@
 28 juillet : Gisèle Halimi,  avocate, militante féministe et femme politique franco-tunisienne.
 29 juillet : Albin Chalandon, haut fonctionnaire, banquier et homme politique français.
 30 juillet : Djemel Barek, acteur franco-algérien
-31 juillet : Alan Parker, réalisateur, compositeur, scénariste et producteur de cinéma britannique.
-Août
-2 août : Leon Fleisher, pianiste et chef d'orchestre américain.
+31 juillet : Alan Parker, réalisateur, compositeur, scénariste et producteur de cinéma britannique.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Décès_en_2020</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_2020</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Août</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>2 août : Leon Fleisher, pianiste et chef d'orchestre américain.
 3 août : John Hume, homme politique nord-irlandais.
 5 août : Bernard Stiegler, philosophe français.
 9 août : Laurent Vicomte, auteur de bandes dessinées français.
@@ -703,9 +958,43 @@
 23 août : Micheline Banzet-Lawton,animatrice de télévision et de radio, une productrice et une musicologue française
 24 août : Pascal Lissouba, homme d'État congolais.
 28 août : Chadwick Boseman, acteur américain.
-31 août : Tom Seaver, joueur de baseball américain.
-Septembre
-1er septembre: Erick Morillo, DJ et producteur de musique électronique.
+31 août : Tom Seaver, joueur de baseball américain.</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Décès_en_2020</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_2020</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Septembre</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>1er septembre: Erick Morillo, DJ et producteur de musique électronique.
 2 septembre : David Graeber, anthropologue et militant anarchiste américain.
 4 septembre :
 Annie Cordy, chanteuse, meneuse de revue et actrice belge.
@@ -733,9 +1022,43 @@
 29 septembre :
 Sabah al-Ahmad al-Jaber al-Sabah, émir du Koweït.
 Helen Reddy, chanteuse, actrice et féministe australienne.
-30 septembre : Quino, scénariste et dessinateur.
-Octobre
-4 octobre : Kenzō Takada, styliste japonais, fondateur de la marque Kenzo.
+30 septembre : Quino, scénariste et dessinateur.</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Décès_en_2020</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_2020</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Octobre</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>4 octobre : Kenzō Takada, styliste japonais, fondateur de la marque Kenzo.
 6 octobre :
 Wladimir Yordanoff, comédien français.
 Eddie Van Halen,  guitariste du groupe de rock Van Halen.
@@ -770,9 +1093,43 @@
 27 octobre : Louis Astre, Professeur, politiciens français.
 28 octobre : Alain Rey, linguiste et lexicographe français.
 30 octobre : Jean-Marie Le Chevallier, homme politique français.
-31 octobre : Sean Connery, acteur britannique.
-Novembre
-2 novembre :
+31 octobre : Sean Connery, acteur britannique.</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Décès_en_2020</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_2020</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Novembre</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>2 novembre :
 Gigi Proietti, Acteur italien, réalisateur, scénariste, comique, doubleur.
 3 novembre :
 Claude Giraud, acteur français.
@@ -819,9 +1176,43 @@
 29 novembre : Papa Bouba Diop, joueur de football sénégalais.
 30 novembre :
 Andrea Huser, sportive suisse.
-Anne Sylvestre, chanteuse française.
-Décembre
-1er décembre :
+Anne Sylvestre, chanteuse française.</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Décès_en_2020</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_2020</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Décembre</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>1er décembre :
 Eric Engstrom, programmeur américain.
 Hugh Keays-Byrne, acteur anglais.
 Henri Teissier, prélat catholique franco-algérien.
